--- a/data/trans_orig/Q5419_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Provincia-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4425</v>
+        <v>3819</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01698877178484846</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06778300774248026</v>
+        <v>0.05849777631298086</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4187</v>
+        <v>3839</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008785189344487205</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03316621533075076</v>
+        <v>0.03041414221690258</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>3182</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7543</v>
+        <v>7325</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0521971296379526</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01446873003553917</v>
+        <v>0.01453528753421279</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1237463558590259</v>
+        <v>0.120168617215776</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -825,19 +825,19 @@
         <v>4890</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2388</v>
+        <v>2270</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8986</v>
+        <v>8375</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.07490688571113334</v>
+        <v>0.07490688571113337</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03658298868134771</v>
+        <v>0.03476875242242715</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1376669843609013</v>
+        <v>0.1282999238868994</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -846,19 +846,19 @@
         <v>8071</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4210</v>
+        <v>4575</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13465</v>
+        <v>14327</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06394073945252111</v>
+        <v>0.06394073945252113</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03335130802889899</v>
+        <v>0.03623972583157699</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1066697222612439</v>
+        <v>0.1134966713727334</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>6407</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3473</v>
+        <v>2861</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11489</v>
+        <v>10820</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1051103585919774</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0569751864012186</v>
+        <v>0.04693858318581073</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1884763342298304</v>
+        <v>0.1775145067201359</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -896,19 +896,19 @@
         <v>13888</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10161</v>
+        <v>9811</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19277</v>
+        <v>18921</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.212760176728881</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1556616820395521</v>
+        <v>0.1502927612759122</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.29531358235366</v>
+        <v>0.2898549513955291</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>37</v>
@@ -917,19 +917,19 @@
         <v>20295</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14355</v>
+        <v>14642</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>27174</v>
+        <v>26829</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1607779517063755</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1137229457179223</v>
+        <v>0.1159904886846953</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2152693031834483</v>
+        <v>0.2125396976306809</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>4305</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1511</v>
+        <v>1470</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8826</v>
+        <v>8558</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07061896272120555</v>
+        <v>0.07061896272120556</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02478953741989422</v>
+        <v>0.02411521257644201</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1447998746717412</v>
+        <v>0.1404066319106361</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -967,19 +967,19 @@
         <v>10308</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6779</v>
+        <v>6702</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14753</v>
+        <v>15136</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1579075178879326</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1038511967627965</v>
+        <v>0.1026752580787102</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2260151087953235</v>
+        <v>0.2318769255099272</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -988,19 +988,19 @@
         <v>14612</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9696</v>
+        <v>9703</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20555</v>
+        <v>20673</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1157573926476309</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07681013874764531</v>
+        <v>0.07686768243854926</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1628401402727033</v>
+        <v>0.1637706633952544</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>47062</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40598</v>
+        <v>41253</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>51635</v>
+        <v>52001</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7720735490488644</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6660286934300923</v>
+        <v>0.6767746193464637</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8470949216898087</v>
+        <v>0.853110344652482</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>73</v>
@@ -1038,19 +1038,19 @@
         <v>35082</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28941</v>
+        <v>29268</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>40033</v>
+        <v>40692</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5374366478872046</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4433705793335332</v>
+        <v>0.4483779421599922</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6132951721303849</v>
+        <v>0.6233842741155793</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>137</v>
@@ -1059,19 +1059,19 @@
         <v>82143</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>72861</v>
+        <v>74148</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>89701</v>
+        <v>89887</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6507387268489851</v>
+        <v>0.6507387268489853</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5772030679323588</v>
+        <v>0.5873972917876085</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7106087005771002</v>
+        <v>0.712080618243418</v>
       </c>
     </row>
     <row r="9">
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4857</v>
+        <v>4662</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01076558177888342</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05554896933012823</v>
+        <v>0.05331014227230715</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1184,19 +1184,19 @@
         <v>10532</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5952</v>
+        <v>6436</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16243</v>
+        <v>16778</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07815471619116077</v>
+        <v>0.07815471619116075</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04416767259731386</v>
+        <v>0.04775746345077145</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1205356787099648</v>
+        <v>0.1245061279416006</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1205,19 +1205,19 @@
         <v>11473</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6454</v>
+        <v>6966</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17983</v>
+        <v>18273</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05163496192985909</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02904511389268028</v>
+        <v>0.03134941668185765</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08093232451416775</v>
+        <v>0.08223706530005283</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5596</v>
+        <v>6465</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0212109907397431</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06399360974314383</v>
+        <v>0.07393540758407759</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1255,19 +1255,19 @@
         <v>5909</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2859</v>
+        <v>3032</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10141</v>
+        <v>10494</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.04384880941949502</v>
+        <v>0.043848809419495</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02121845745729975</v>
+        <v>0.02249591775951438</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07525469194062004</v>
+        <v>0.07787397395000775</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -1276,19 +1276,19 @@
         <v>7764</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4278</v>
+        <v>3906</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13582</v>
+        <v>13463</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03494011228849951</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01925199379125787</v>
+        <v>0.01757765892931233</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06112439497796916</v>
+        <v>0.06058777908365727</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>5549</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2637</v>
+        <v>1875</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11906</v>
+        <v>10916</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0634565719933344</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03015375360342903</v>
+        <v>0.021443642638533</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1361543169524018</v>
+        <v>0.1248325213345769</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -1326,19 +1326,19 @@
         <v>22057</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15945</v>
+        <v>16235</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29522</v>
+        <v>29960</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1636807554040203</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1183200250298744</v>
+        <v>0.1204727335313407</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.21907625016302</v>
+        <v>0.2223239787154324</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>41</v>
@@ -1347,19 +1347,19 @@
         <v>27606</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20247</v>
+        <v>20309</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35760</v>
+        <v>37237</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1242393715923478</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09111853924850517</v>
+        <v>0.09139827912018979</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1609343776722597</v>
+        <v>0.1675809838081955</v>
       </c>
     </row>
     <row r="13">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6616</v>
+        <v>5813</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02211305242579043</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07566298623956515</v>
+        <v>0.06648237310756903</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1397,19 +1397,19 @@
         <v>8316</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4779</v>
+        <v>4829</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13363</v>
+        <v>13048</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0617067169793615</v>
+        <v>0.06170671697936149</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03546102238532162</v>
+        <v>0.03583625624965471</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09916110562431318</v>
+        <v>0.096822562626019</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1418,19 +1418,19 @@
         <v>10249</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5952</v>
+        <v>6335</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16261</v>
+        <v>16278</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04612535859833118</v>
+        <v>0.04612535859833119</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02678680120698848</v>
+        <v>0.02850943695573317</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07317910877184854</v>
+        <v>0.07325524728816282</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>77165</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>69811</v>
+        <v>70636</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>81823</v>
+        <v>81900</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8824538030622487</v>
+        <v>0.8824538030622485</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7983460041443603</v>
+        <v>0.8077866766542735</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9357167410540423</v>
+        <v>0.9366044907148352</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>148</v>
@@ -1468,19 +1468,19 @@
         <v>87945</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>79284</v>
+        <v>79046</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>96561</v>
+        <v>95682</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6526090020059625</v>
+        <v>0.6526090020059624</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5883424555270953</v>
+        <v>0.586574424227773</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.716549340497376</v>
+        <v>0.7100261780908426</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>231</v>
@@ -1489,19 +1489,19 @@
         <v>165110</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>153756</v>
+        <v>154157</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>175563</v>
+        <v>175562</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7430601955909625</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.691961977972436</v>
+        <v>0.6937647094334647</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7901015418923654</v>
+        <v>0.7900982610918497</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>9280</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5723</v>
+        <v>5342</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13937</v>
+        <v>14108</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1283818848096109</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07916639989537272</v>
+        <v>0.07389756823268431</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1928038177109295</v>
+        <v>0.1951684526072767</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -1614,19 +1614,19 @@
         <v>13349</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9177</v>
+        <v>9221</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18580</v>
+        <v>18570</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1554934481855491</v>
+        <v>0.155493448185549</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1069005060621996</v>
+        <v>0.1074026318331362</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2164280628406136</v>
+        <v>0.2163054228605239</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -1635,19 +1635,19 @@
         <v>22629</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16549</v>
+        <v>16923</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29183</v>
+        <v>29935</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.143100501662071</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1046521847448204</v>
+        <v>0.1070160328202348</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1845420288321349</v>
+        <v>0.1892977342274758</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>2325</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5338</v>
+        <v>5944</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03216291997520742</v>
+        <v>0.03216291997520741</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008405668867757588</v>
+        <v>0.008437195817483934</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07384220949498146</v>
+        <v>0.08222973285938288</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1685,19 +1685,19 @@
         <v>4850</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2487</v>
+        <v>2495</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8398</v>
+        <v>9009</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05649089626501946</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0289720336755255</v>
+        <v>0.02906039949703832</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09782220814096618</v>
+        <v>0.1049398817002346</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -1706,19 +1706,19 @@
         <v>7175</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4283</v>
+        <v>4220</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11442</v>
+        <v>12110</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04537035315935469</v>
+        <v>0.0453703531593547</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02708299746617871</v>
+        <v>0.0266845165443138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07235331856184204</v>
+        <v>0.07657949426828937</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>4058</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7750</v>
+        <v>7758</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.05614019560552146</v>
+        <v>0.05614019560552144</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02424571104072545</v>
+        <v>0.02435647328632989</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1072102454986518</v>
+        <v>0.1073240588059843</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -1756,19 +1756,19 @@
         <v>5641</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2748</v>
+        <v>3078</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9833</v>
+        <v>9868</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06571248495683127</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03201125833014457</v>
+        <v>0.03585606216313101</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1145388070428124</v>
+        <v>0.1149476071645322</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -1777,19 +1777,19 @@
         <v>9700</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6169</v>
+        <v>5828</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>14815</v>
+        <v>14863</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06133690290746388</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03901141238519348</v>
+        <v>0.03685227567804884</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09368822545759474</v>
+        <v>0.09398674659009242</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>2209</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5130</v>
+        <v>5096</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.03056440458727782</v>
+        <v>0.03056440458727781</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007755323843473472</v>
+        <v>0.007723683686704554</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07097308825844274</v>
+        <v>0.0704950607944955</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -1827,19 +1827,19 @@
         <v>8903</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5404</v>
+        <v>5332</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13405</v>
+        <v>13479</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1037074051612216</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06295126077635525</v>
+        <v>0.06210696254303353</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1561387465925084</v>
+        <v>0.1570070733136114</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -1848,19 +1848,19 @@
         <v>11113</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7140</v>
+        <v>7218</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16361</v>
+        <v>16693</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.07027306269596559</v>
+        <v>0.0702730626959656</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04514878034423908</v>
+        <v>0.04564553696613952</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.103460257398594</v>
+        <v>0.1055635238312184</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>54413</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>48659</v>
+        <v>48324</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>59488</v>
+        <v>59573</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7527505950223825</v>
+        <v>0.7527505950223824</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6731611369809478</v>
+        <v>0.6685193187567217</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8229641987473699</v>
+        <v>0.8241419090894658</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>104</v>
@@ -1898,19 +1898,19 @@
         <v>53106</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>46723</v>
+        <v>46504</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>59145</v>
+        <v>59530</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6185957654313786</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.544238960843068</v>
+        <v>0.541686414378847</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6889339801799113</v>
+        <v>0.6934139873475156</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>195</v>
@@ -1919,19 +1919,19 @@
         <v>107519</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>99485</v>
+        <v>98595</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>115911</v>
+        <v>115559</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6799191795751446</v>
+        <v>0.6799191795751448</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6291126795856175</v>
+        <v>0.6234863959547708</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7329847592174773</v>
+        <v>0.730763958830113</v>
       </c>
     </row>
     <row r="21">
@@ -2023,19 +2023,19 @@
         <v>3877</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1441</v>
+        <v>1782</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8070</v>
+        <v>8683</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04661930997718625</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01733421283452871</v>
+        <v>0.02143457729646926</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09705104259532434</v>
+        <v>0.104412783308548</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -2044,19 +2044,19 @@
         <v>15488</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11462</v>
+        <v>11072</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20694</v>
+        <v>20466</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1401580007467119</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1037242513275238</v>
+        <v>0.1001950217997485</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1872697556669495</v>
+        <v>0.1852084652513778</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>42</v>
@@ -2065,19 +2065,19 @@
         <v>19365</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14657</v>
+        <v>13962</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26497</v>
+        <v>25523</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.09999314494958322</v>
+        <v>0.0999931449495832</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07568255629540108</v>
+        <v>0.07209364257076847</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1368230560952512</v>
+        <v>0.1317937838593756</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>2942</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>775</v>
+        <v>786</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6833</v>
+        <v>7285</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03537724485763626</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009313820778431915</v>
+        <v>0.009453693426822828</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08217645666869351</v>
+        <v>0.08760369346256577</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -2115,19 +2115,19 @@
         <v>2658</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>859</v>
+        <v>1029</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5493</v>
+        <v>5611</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02405409392665769</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.007773796040089425</v>
+        <v>0.00931326391978092</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04970472076602697</v>
+        <v>0.05078029043707501</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -2136,19 +2136,19 @@
         <v>5600</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2806</v>
+        <v>2747</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9839</v>
+        <v>10240</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0289161752811259</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01448679104676736</v>
+        <v>0.01418654718682255</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05080407894836089</v>
+        <v>0.05287552603658791</v>
       </c>
     </row>
     <row r="24">
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3328</v>
+        <v>3295</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.007985877212964608</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04002644478350981</v>
+        <v>0.03962860431504237</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2186,19 +2186,19 @@
         <v>1931</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4158</v>
+        <v>4381</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01747401197359835</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00674986726187504</v>
+        <v>0.006772492259050755</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03762761892051741</v>
+        <v>0.03964846009720799</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2207,19 +2207,19 @@
         <v>2595</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5574</v>
+        <v>5365</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01339987365383543</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005446351089681366</v>
+        <v>0.005436929734441278</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02878139798462942</v>
+        <v>0.02770237944685573</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>3298</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1292</v>
+        <v>1214</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7093</v>
+        <v>7257</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03965671651151364</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01553350826691681</v>
+        <v>0.01459623803989174</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08529720056592772</v>
+        <v>0.08726898012284708</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -2257,19 +2257,19 @@
         <v>7767</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4448</v>
+        <v>4710</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11770</v>
+        <v>11792</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07028670095483995</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0402537738551047</v>
+        <v>0.04262177556259716</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1065075061339592</v>
+        <v>0.1067134679897152</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>23</v>
@@ -2278,19 +2278,19 @@
         <v>11065</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7361</v>
+        <v>7087</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16268</v>
+        <v>16630</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05713440110850401</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.038008020889408</v>
+        <v>0.03659437235557043</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08400162196321603</v>
+        <v>0.08587053382737019</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>72376</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>66744</v>
+        <v>66551</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>76507</v>
+        <v>76489</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8703608514406993</v>
+        <v>0.8703608514406992</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8026339070989907</v>
+        <v>0.8003209570540726</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9200432728809786</v>
+        <v>0.9198207434705943</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>191</v>
@@ -2328,19 +2328,19 @@
         <v>82660</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>76420</v>
+        <v>76944</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>88231</v>
+        <v>88132</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.748027192398192</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6915549447818901</v>
+        <v>0.6963044958403878</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7984392892135336</v>
+        <v>0.7975493630160104</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>293</v>
@@ -2349,19 +2349,19 @@
         <v>155036</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>146652</v>
+        <v>146759</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>162230</v>
+        <v>162757</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8005564050069515</v>
+        <v>0.8005564050069514</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.757264413230873</v>
+        <v>0.7578169295034715</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8377053740454987</v>
+        <v>0.8404260906486816</v>
       </c>
     </row>
     <row r="27">
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2593</v>
+        <v>2349</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01413679724406581</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07104275346783887</v>
+        <v>0.06436000061037629</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2528</v>
+        <v>2937</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01375076651728858</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0410732479735917</v>
+        <v>0.0477283242035554</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -2498,16 +2498,16 @@
         <v>379</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3746</v>
+        <v>3945</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01389448919180316</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003862310033513648</v>
+        <v>0.003869811445057489</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03821106971654348</v>
+        <v>0.04023322903135424</v>
       </c>
     </row>
     <row r="29">
@@ -2537,19 +2537,19 @@
         <v>1605</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3613</v>
+        <v>4053</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02607233453774371</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006452271692979368</v>
+        <v>0.006566254667808687</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05870142915773</v>
+        <v>0.06586522183296847</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2558,19 +2558,19 @@
         <v>1605</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4006</v>
+        <v>3642</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01636537239541234</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004041517549221473</v>
+        <v>0.004027061732005286</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04085586313505515</v>
+        <v>0.03714442847399752</v>
       </c>
     </row>
     <row r="30">
@@ -2590,16 +2590,16 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.01418437598805933</v>
+        <v>0.01418437598805932</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07101494453859314</v>
+        <v>0.07103688523645969</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>9</v>
@@ -2608,19 +2608,19 @@
         <v>3972</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1958</v>
+        <v>1994</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7132</v>
+        <v>7354</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06454493600929337</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03181255344144333</v>
+        <v>0.03239819014506076</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1158939837440181</v>
+        <v>0.1194910716681913</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>10</v>
@@ -2629,19 +2629,19 @@
         <v>4490</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2320</v>
+        <v>2399</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8042</v>
+        <v>8541</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.04579525140068871</v>
+        <v>0.0457952514006887</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02366001447472557</v>
+        <v>0.02447135469016956</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08202341567574538</v>
+        <v>0.08710885369653799</v>
       </c>
     </row>
     <row r="31">
@@ -2658,19 +2658,19 @@
         <v>6643</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3974</v>
+        <v>3653</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>10402</v>
+        <v>10663</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1819915607556976</v>
+        <v>0.1819915607556975</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.108877663546944</v>
+        <v>0.1000710907519171</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2849663940797924</v>
+        <v>0.2921088853692669</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>21</v>
@@ -2679,19 +2679,19 @@
         <v>7713</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4844</v>
+        <v>5102</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11346</v>
+        <v>11473</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1253369444421406</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07871510105899714</v>
+        <v>0.0829001069648392</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1843660441148961</v>
+        <v>0.186432234853234</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>34</v>
@@ -2700,19 +2700,19 @@
         <v>14357</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10391</v>
+        <v>10201</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>19109</v>
+        <v>19617</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1464299622134444</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1059854644532041</v>
+        <v>0.1040442191957186</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1949033677788674</v>
+        <v>0.2000809750904771</v>
       </c>
     </row>
     <row r="32">
@@ -2729,19 +2729,19 @@
         <v>28826</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>25079</v>
+        <v>24804</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31888</v>
+        <v>31960</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7896872660121773</v>
+        <v>0.789687266012177</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6870529324894163</v>
+        <v>0.6794987258887767</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8735598712619584</v>
+        <v>0.8755467981073675</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>129</v>
@@ -2750,19 +2750,19 @@
         <v>47405</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>42852</v>
+        <v>43147</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>51447</v>
+        <v>51160</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7702950184935338</v>
+        <v>0.7702950184935337</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6963004888305665</v>
+        <v>0.7010919889419189</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.835966253483856</v>
+        <v>0.8312958312341797</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>185</v>
@@ -2771,19 +2771,19 @@
         <v>76231</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>70937</v>
+        <v>70594</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>81252</v>
+        <v>81398</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7775149247986515</v>
+        <v>0.7775149247986516</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7235127762378254</v>
+        <v>0.7200145742767213</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8287206934829784</v>
+        <v>0.830213743365014</v>
       </c>
     </row>
     <row r="33">
@@ -2875,19 +2875,19 @@
         <v>11303</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7936</v>
+        <v>7781</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>16332</v>
+        <v>15366</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1876849485442376</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1317798314393505</v>
+        <v>0.1292037336754617</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2711868530429876</v>
+        <v>0.2551486499055713</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>63</v>
@@ -2896,19 +2896,19 @@
         <v>21573</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>17161</v>
+        <v>16798</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>26718</v>
+        <v>25830</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3222713901640534</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2563557934604158</v>
+        <v>0.2509368736959474</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3991204860867237</v>
+        <v>0.3858507524106993</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>90</v>
@@ -2917,19 +2917,19 @@
         <v>32877</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>26700</v>
+        <v>26666</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>39088</v>
+        <v>39071</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2585335281166882</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2099631322069404</v>
+        <v>0.2096958687203823</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.307378353186032</v>
+        <v>0.307244316137735</v>
       </c>
     </row>
     <row r="35">
@@ -2946,19 +2946,19 @@
         <v>1254</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3199</v>
+        <v>3542</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.02082190097515171</v>
+        <v>0.0208219009751517</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.005679312519893516</v>
+        <v>0.005721438926755109</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05312307382525544</v>
+        <v>0.05880702559524091</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -2967,19 +2967,19 @@
         <v>3153</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1671</v>
+        <v>1549</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5969</v>
+        <v>5800</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.04710064510322712</v>
+        <v>0.04710064510322715</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02495520841443888</v>
+        <v>0.02314542818591923</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08917057090565468</v>
+        <v>0.0866381847753139</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>12</v>
@@ -2988,19 +2988,19 @@
         <v>4407</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2454</v>
+        <v>2514</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7253</v>
+        <v>7658</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.03465547642312535</v>
+        <v>0.03465547642312536</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01930083345442532</v>
+        <v>0.01977283100563872</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05703936997181287</v>
+        <v>0.0602165803223381</v>
       </c>
     </row>
     <row r="36">
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2067</v>
+        <v>2202</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.006765356476368566</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03432190028372305</v>
+        <v>0.03656975088919436</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -3041,16 +3041,16 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1544</v>
+        <v>1552</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.003999860624007167</v>
+        <v>0.003999860624007168</v>
       </c>
       <c r="O36" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02306838341714234</v>
+        <v>0.02317745032863517</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2473</v>
+        <v>2408</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005309552677745354</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01944480885687179</v>
+        <v>0.01893874131403805</v>
       </c>
     </row>
     <row r="37">
@@ -3088,19 +3088,19 @@
         <v>1685</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>549</v>
+        <v>420</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>4773</v>
+        <v>4143</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02798115383657676</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.009111236063272255</v>
+        <v>0.006979577547237816</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0792587592163439</v>
+        <v>0.06879469676141049</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>7</v>
@@ -3109,19 +3109,19 @@
         <v>2585</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1130</v>
+        <v>1099</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>5192</v>
+        <v>4898</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.03861387654096418</v>
+        <v>0.0386138765409642</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01688510410334885</v>
+        <v>0.01641080155066089</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07755410197233814</v>
+        <v>0.07316883897888013</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>11</v>
@@ -3130,19 +3130,19 @@
         <v>4270</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2309</v>
+        <v>2185</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>7408</v>
+        <v>7415</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0335783989344268</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01815631138379111</v>
+        <v>0.01718419401006917</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05825116707028552</v>
+        <v>0.05831300051318438</v>
       </c>
     </row>
     <row r="38">
@@ -3159,7 +3159,7 @@
         <v>45574</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>40346</v>
+        <v>41211</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>49661</v>
@@ -3168,10 +3168,10 @@
         <v>0.7567466401676655</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6699312150312741</v>
+        <v>0.684287080456057</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8246046515865911</v>
+        <v>0.8245981102072305</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>96</v>
@@ -3180,19 +3180,19 @@
         <v>39363</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>34558</v>
+        <v>34431</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>44206</v>
+        <v>44537</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.5880142275677481</v>
+        <v>0.5880142275677483</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5162393171213948</v>
+        <v>0.5143406527438188</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6603677573018818</v>
+        <v>0.6653093122529088</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>196</v>
@@ -3201,19 +3201,19 @@
         <v>84937</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>78132</v>
+        <v>78822</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>91614</v>
+        <v>91846</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.667923043848014</v>
+        <v>0.6679230438480142</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6144129785158711</v>
+        <v>0.6198371190268288</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7204308038225798</v>
+        <v>0.7222514507249218</v>
       </c>
     </row>
     <row r="39">
@@ -3305,19 +3305,19 @@
         <v>11514</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6019</v>
+        <v>6004</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>19612</v>
+        <v>19832</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.07608209567535336</v>
+        <v>0.07608209567535337</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03977407586691554</v>
+        <v>0.03966955793439313</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1295900775943343</v>
+        <v>0.1310428477827642</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>38</v>
@@ -3326,19 +3326,19 @@
         <v>26733</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>19930</v>
+        <v>19566</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>34973</v>
+        <v>35424</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1634603936407612</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1218648344491971</v>
+        <v>0.1196392208423825</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2138429309804133</v>
+        <v>0.2166014150236302</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>49</v>
@@ -3347,19 +3347,19 @@
         <v>38247</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>28833</v>
+        <v>28045</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>49649</v>
+        <v>49561</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1214641755918904</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.09156709538536036</v>
+        <v>0.0890647269005191</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1576750083847565</v>
+        <v>0.1573953047470557</v>
       </c>
     </row>
     <row r="41">
@@ -3389,19 +3389,19 @@
         <v>7008</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>3322</v>
+        <v>3343</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>13036</v>
+        <v>14337</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04285248125397439</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02030966832998937</v>
+        <v>0.02044239312175386</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07971267675457325</v>
+        <v>0.08766627583269242</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>9</v>
@@ -3410,19 +3410,19 @@
         <v>7008</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3326</v>
+        <v>3294</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>13904</v>
+        <v>14677</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02225649588253219</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01056363538976042</v>
+        <v>0.01046236092064006</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04415664998720108</v>
+        <v>0.0466104608451666</v>
       </c>
     </row>
     <row r="42">
@@ -3439,19 +3439,19 @@
         <v>3798</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>9248</v>
+        <v>9058</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02509421462900812</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.006640180147540032</v>
+        <v>0.006584665343785879</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.06110989330512864</v>
+        <v>0.059852150724465</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>10</v>
@@ -3460,19 +3460,19 @@
         <v>7069</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3441</v>
+        <v>3374</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>12660</v>
+        <v>12379</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04322470577259264</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02104338492257646</v>
+        <v>0.02062864110773394</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.07741366706319511</v>
+        <v>0.07569438981736815</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>14</v>
@@ -3481,19 +3481,19 @@
         <v>10867</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6376</v>
+        <v>6406</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>18027</v>
+        <v>17537</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03451073357207517</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02024962650163372</v>
+        <v>0.02034253388462398</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05724848718091813</v>
+        <v>0.05569293856654482</v>
       </c>
     </row>
     <row r="43">
@@ -3510,19 +3510,19 @@
         <v>2510</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>7547</v>
+        <v>6747</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.01658288186757408</v>
+        <v>0.01658288186757409</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.005365235532478839</v>
+        <v>0.005331949359527312</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04986653318375535</v>
+        <v>0.04457892424904576</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>8</v>
@@ -3531,19 +3531,19 @@
         <v>5312</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2572</v>
+        <v>2003</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>10337</v>
+        <v>9364</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.03247800292402045</v>
+        <v>0.03247800292402046</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01572621245568829</v>
+        <v>0.01224670341791723</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.06320506453864363</v>
+        <v>0.05725825796564088</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>11</v>
@@ -3552,19 +3552,19 @@
         <v>7821</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>4091</v>
+        <v>4140</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>13038</v>
+        <v>13189</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02483840607510965</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01299288711191835</v>
+        <v>0.01314852846814062</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0414059931575376</v>
+        <v>0.04188563266547803</v>
       </c>
     </row>
     <row r="44">
@@ -3581,19 +3581,19 @@
         <v>133519</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>124099</v>
+        <v>124448</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>140188</v>
+        <v>140332</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.8822408078280641</v>
+        <v>0.8822408078280645</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8199926799534275</v>
+        <v>0.8223015796101901</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9263064435176932</v>
+        <v>0.9272559509305905</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>175</v>
@@ -3602,19 +3602,19 @@
         <v>117421</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>107650</v>
+        <v>107136</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>126480</v>
+        <v>126236</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.7179844164086513</v>
+        <v>0.7179844164086514</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6582358319302017</v>
+        <v>0.6550932725587562</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7733742176600749</v>
+        <v>0.7718795814839767</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>325</v>
@@ -3623,19 +3623,19 @@
         <v>250941</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>237610</v>
+        <v>237561</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>262982</v>
+        <v>263278</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.7969301888783927</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7545947558284324</v>
+        <v>0.7544411993927775</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8351717411250534</v>
+        <v>0.8361102428176457</v>
       </c>
     </row>
     <row r="45">
@@ -3727,19 +3727,19 @@
         <v>2685</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>6369</v>
+        <v>6714</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0164178761970109</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.004208632450030682</v>
+        <v>0.004195439576597603</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03894337056560984</v>
+        <v>0.04105109566385858</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>9</v>
@@ -3748,19 +3748,19 @@
         <v>6479</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>3032</v>
+        <v>2805</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>11707</v>
+        <v>11684</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03045143360310552</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01424992063911299</v>
+        <v>0.01318276276799328</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.05502136429624726</v>
+        <v>0.0549170956521751</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>13</v>
@@ -3769,19 +3769,19 @@
         <v>9164</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>5111</v>
+        <v>5132</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>15560</v>
+        <v>15720</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02435224641925783</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.013581314551041</v>
+        <v>0.01363651599984262</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04134842312845256</v>
+        <v>0.04177374172494935</v>
       </c>
     </row>
     <row r="47">
@@ -3801,16 +3801,16 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4532</v>
+        <v>4154</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.00422439128074194</v>
+        <v>0.004224391280741939</v>
       </c>
       <c r="H47" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02771165369325081</v>
+        <v>0.02539899848226605</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>4</v>
@@ -3819,19 +3819,19 @@
         <v>2676</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>6265</v>
+        <v>6896</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01257614022935446</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.002868709112663578</v>
+        <v>0.00288807250319246</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02944457096337858</v>
+        <v>0.03241263483704705</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>5</v>
@@ -3840,19 +3840,19 @@
         <v>3367</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1281</v>
+        <v>1195</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>7866</v>
+        <v>7944</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.008946349245069268</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.003404973210826922</v>
+        <v>0.003174736119981913</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02090153077980545</v>
+        <v>0.02110887162920008</v>
       </c>
     </row>
     <row r="48">
@@ -3869,19 +3869,19 @@
         <v>3357</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7371</v>
+        <v>7435</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02052817599068234</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.008108310177309072</v>
+        <v>0.008035018757224517</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.04506482754123168</v>
+        <v>0.04546166012507682</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>26</v>
@@ -3890,19 +3890,19 @@
         <v>16640</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>11080</v>
+        <v>11266</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>23476</v>
+        <v>23639</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.07820706151000593</v>
+        <v>0.07820706151000592</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.05207512156120757</v>
+        <v>0.05294919952865933</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1103380675051981</v>
+        <v>0.1111021861938583</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>31</v>
@@ -3911,19 +3911,19 @@
         <v>19997</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>13836</v>
+        <v>13820</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>27967</v>
+        <v>28085</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.05313898296384228</v>
+        <v>0.05313898296384226</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.03676720278414356</v>
+        <v>0.03672308444261928</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.07431655032369916</v>
+        <v>0.07463168143035513</v>
       </c>
     </row>
     <row r="49">
@@ -3940,19 +3940,19 @@
         <v>7868</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>3749</v>
+        <v>4057</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>13728</v>
+        <v>13297</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.04810947200425898</v>
+        <v>0.04810947200425897</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02292024755380518</v>
+        <v>0.02480310297004071</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.08393421908686048</v>
+        <v>0.08130165441835301</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>47</v>
@@ -3961,19 +3961,19 @@
         <v>30399</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>22677</v>
+        <v>22369</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>39573</v>
+        <v>38600</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1428768159283261</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1065833621115778</v>
+        <v>0.105132452468975</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1859930792029816</v>
+        <v>0.1814221091958886</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>58</v>
@@ -3982,19 +3982,19 @@
         <v>38268</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>30390</v>
+        <v>29027</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>49929</v>
+        <v>48406</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1016895565055702</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.08075501544896968</v>
+        <v>0.07713493524163398</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1326761265952691</v>
+        <v>0.1286293436047711</v>
       </c>
     </row>
     <row r="50">
@@ -4011,19 +4011,19 @@
         <v>148952</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>141525</v>
+        <v>142140</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>154444</v>
+        <v>154083</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.9107200845273057</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8653118629353592</v>
+        <v>0.8690732063748384</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9443010123160838</v>
+        <v>0.9420904898013428</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>257</v>
@@ -4032,19 +4032,19 @@
         <v>156572</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>145836</v>
+        <v>145131</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>166728</v>
+        <v>166307</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.7358885487292082</v>
+        <v>0.7358885487292079</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.6854307049026988</v>
+        <v>0.682117803799101</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.7836217801775051</v>
+        <v>0.7816416635844986</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>471</v>
@@ -4053,19 +4053,19 @@
         <v>305525</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>293079</v>
+        <v>292839</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>316151</v>
+        <v>318112</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.8118728648662604</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.7788006062249416</v>
+        <v>0.7781621497409217</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.8401105429372543</v>
+        <v>0.845319787181354</v>
       </c>
     </row>
     <row r="51">
@@ -4157,19 +4157,19 @@
         <v>40117</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>31142</v>
+        <v>30997</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>51785</v>
+        <v>50895</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.05607121497952272</v>
+        <v>0.05607121497952273</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.04352701418895177</v>
+        <v>0.04332449491274955</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.07237916767266689</v>
+        <v>0.07113651747250635</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>193</v>
@@ -4178,19 +4178,19 @@
         <v>96110</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>83985</v>
+        <v>82232</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>109368</v>
+        <v>109377</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1066485130887212</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.09319428302605955</v>
+        <v>0.09124947881263253</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1213608040302786</v>
+        <v>0.1213706245410814</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>259</v>
@@ -4199,19 +4199,19 @@
         <v>136227</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>119674</v>
+        <v>121962</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>153609</v>
+        <v>154614</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.08426502548644629</v>
+        <v>0.08426502548644631</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.07402596995579995</v>
+        <v>0.07544143701378893</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.09501728844429935</v>
+        <v>0.09563883779534581</v>
       </c>
     </row>
     <row r="53">
@@ -4228,19 +4228,19 @@
         <v>12248</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>7207</v>
+        <v>7287</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>19548</v>
+        <v>18535</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01711907627682302</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.01007312448213735</v>
+        <v>0.01018441918531691</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.02732208343897647</v>
+        <v>0.02590587573299586</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>59</v>
@@ -4249,19 +4249,19 @@
         <v>32748</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>24020</v>
+        <v>25302</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>42685</v>
+        <v>42816</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.03633896915922393</v>
+        <v>0.03633896915922394</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.0266533883097872</v>
+        <v>0.0280761210230307</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.04736536993762654</v>
+        <v>0.04751089176817322</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>77</v>
@@ -4270,19 +4270,19 @@
         <v>44996</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>35795</v>
+        <v>35750</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>56886</v>
+        <v>56155</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.02783301391579763</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.02214168282002666</v>
+        <v>0.02211392238476771</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.03518766784012534</v>
+        <v>0.03473557686944564</v>
       </c>
     </row>
     <row r="54">
@@ -4299,19 +4299,19 @@
         <v>24758</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>17355</v>
+        <v>17617</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>34741</v>
+        <v>34440</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.03460490974021632</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.02425664242014961</v>
+        <v>0.02462271890722197</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.04855797245406063</v>
+        <v>0.04813707882948128</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>125</v>
@@ -4320,19 +4320,19 @@
         <v>71467</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>59682</v>
+        <v>59849</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>84177</v>
+        <v>86004</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.07930348157403651</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.06622586703742656</v>
+        <v>0.06641214288225732</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.09340729025369081</v>
+        <v>0.09543433085661163</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>159</v>
@@ -4341,19 +4341,19 @@
         <v>96225</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>82317</v>
+        <v>83469</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>112387</v>
+        <v>112764</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.05952168290378002</v>
+        <v>0.05952168290378004</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.05091854833758688</v>
+        <v>0.0516308196799549</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.06951877941542706</v>
+        <v>0.06975219282048215</v>
       </c>
     </row>
     <row r="55">
@@ -4370,19 +4370,19 @@
         <v>30452</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>22898</v>
+        <v>22365</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>40022</v>
+        <v>39437</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.04256244703338531</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.03200436059970298</v>
+        <v>0.03125998725481845</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.05593878663179297</v>
+        <v>0.05512133869057391</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>153</v>
@@ -4391,19 +4391,19 @@
         <v>81303</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>70181</v>
+        <v>70021</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>95532</v>
+        <v>93975</v>
       </c>
       <c r="N55" s="6" t="n">
-        <v>0.09021777089479396</v>
+        <v>0.09021777089479398</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.07787711458309395</v>
+        <v>0.0776995079101037</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1060076647996925</v>
+        <v>0.1042794497529699</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>201</v>
@@ -4412,19 +4412,19 @@
         <v>111754</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>96650</v>
+        <v>95488</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>128437</v>
+        <v>127573</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.06912743213191259</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.05978405526715899</v>
+        <v>0.0590658398880681</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.07944667883125571</v>
+        <v>0.07891237083774766</v>
       </c>
     </row>
     <row r="56">
@@ -4441,19 +4441,19 @@
         <v>607887</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>591052</v>
+        <v>590920</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>622347</v>
+        <v>623384</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.8496423519700527</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.8261130136523551</v>
+        <v>0.8259283041068637</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.8698528279460516</v>
+        <v>0.8713025159421206</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1173</v>
@@ -4462,19 +4462,19 @@
         <v>619555</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>599530</v>
+        <v>598183</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>641040</v>
+        <v>640793</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.6874912652832246</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.6652702503495013</v>
+        <v>0.6637765383644363</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.7113322631217621</v>
+        <v>0.7110582020762439</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>2033</v>
@@ -4483,19 +4483,19 @@
         <v>1227442</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1200324</v>
+        <v>1202043</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1252583</v>
+        <v>1254556</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.7592528455620634</v>
+        <v>0.7592528455620635</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.7424788807474891</v>
+        <v>0.7435419984301367</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.7748041922890592</v>
+        <v>0.7760250475289358</v>
       </c>
     </row>
     <row r="57">
